--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на продление трудового отпуска (в связи с болезнью).xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление на продление трудового отпуска (в связи с болезнью).xlsx
@@ -66,10 +66,10 @@
     <t>Начальник структурного подразделения______________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">     В связи с временной нетрудоспособностью во время трудового отпуска                        с _____________ 2019 по _____________ 2019 прошу продлить мне трудовой отпуск на _____ календарных дней с ______________ 2019.                                              Копию листка нетрудоспособности серии _____ № ___________, выданного ___________________2019, прилагаю.</t>
-  </si>
-  <si>
     <t>Инспектор по кадрам                             _________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     В связи с временной нетрудоспособностью во время трудового отпуска                        с _____________  по _____________  прошу продлить мне трудовой отпуск на _____ календарных дней с ______________ .                                              Копию листка нетрудоспособности серии _____ № ___________, выданного ___________________, прилагаю.</t>
   </si>
 </sst>
 </file>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="13" spans="1:13" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -792,7 +792,7 @@
     </row>
     <row r="28" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -819,7 +819,7 @@
       <c r="D33" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2uHgiqXBNGrXz5N5F0jr0c8pBr9MBAhexxnYK3q/aZODQBsRCB9dI6H8yu0bpPULaTSiyhlJa+vOUWIrBAQL+Q==" saltValue="TFfgLYmGUGJGcOnn7VhVqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:B3"/>
